--- a/source-xlsx/26-04-2020.xlsx
+++ b/source-xlsx/26-04-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\covid19\source-xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6AA439-E61E-4A29-B82F-5F85BBE4F1E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1AF630-7F5A-45C9-976A-7C03C6AE337D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="221">
   <si>
     <t>division</t>
   </si>
@@ -1032,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D254"/>
+  <dimension ref="A1:D253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="C219" sqref="C219"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1066,13 +1066,10 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>2485</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>218</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1080,10 +1077,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1091,10 +1088,10 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
-        <v>308</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1102,10 +1099,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>183</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1113,10 +1110,10 @@
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1124,10 +1121,10 @@
         <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2">
-        <v>12</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1135,10 +1132,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2">
-        <v>625</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1146,10 +1143,10 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2">
-        <v>72</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1157,10 +1154,10 @@
         <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2">
-        <v>142</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1168,10 +1165,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1179,10 +1176,10 @@
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1190,10 +1187,10 @@
         <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1201,21 +1198,21 @@
         <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
+      <c r="A15" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1223,10 +1220,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1234,10 +1231,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1245,10 +1242,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1256,10 +1253,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1267,10 +1264,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1278,10 +1275,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1289,10 +1286,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1300,21 +1297,21 @@
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1322,10 +1319,10 @@
         <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1333,10 +1330,10 @@
         <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" s="2">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1344,21 +1341,21 @@
         <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="2">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1366,10 +1363,10 @@
         <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1377,10 +1374,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1388,10 +1385,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1399,197 +1396,198 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C40" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C41" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>62</v>
+        <v>217</v>
       </c>
       <c r="C42" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>217</v>
+        <v>63</v>
       </c>
       <c r="C43" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D49" s="2"/>
     </row>
@@ -1598,10 +1596,10 @@
         <v>54</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C50" s="2">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D50" s="2"/>
     </row>
@@ -1610,10 +1608,10 @@
         <v>54</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D51" s="2"/>
     </row>
@@ -1622,10 +1620,10 @@
         <v>54</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D52" s="2"/>
     </row>
@@ -1634,10 +1632,10 @@
         <v>54</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D53" s="2"/>
     </row>
@@ -1646,22 +1644,22 @@
         <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C55" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D55" s="2"/>
     </row>
@@ -1670,10 +1668,10 @@
         <v>51</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C56" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D56" s="2"/>
     </row>
@@ -1682,10 +1680,10 @@
         <v>51</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" s="2"/>
     </row>
@@ -1694,10 +1692,10 @@
         <v>51</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C58" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2"/>
     </row>
@@ -1706,10 +1704,10 @@
         <v>51</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C59" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D59" s="2"/>
     </row>
@@ -1718,7 +1716,7 @@
         <v>51</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C60" s="2">
         <v>2</v>
@@ -1730,24 +1728,26 @@
         <v>51</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C61" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>51</v>
+      <c r="A62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C62" s="2">
-        <v>10</v>
-      </c>
-      <c r="D62" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -1757,10 +1757,10 @@
         <v>52</v>
       </c>
       <c r="C63" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1771,10 +1771,10 @@
         <v>52</v>
       </c>
       <c r="C64" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1785,10 +1785,10 @@
         <v>52</v>
       </c>
       <c r="C65" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1802,7 +1802,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1816,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1827,10 +1827,10 @@
         <v>52</v>
       </c>
       <c r="C68" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1841,10 +1841,10 @@
         <v>52</v>
       </c>
       <c r="C69" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1855,10 +1855,10 @@
         <v>52</v>
       </c>
       <c r="C70" s="2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1869,10 +1869,10 @@
         <v>52</v>
       </c>
       <c r="C71" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1883,10 +1883,10 @@
         <v>52</v>
       </c>
       <c r="C72" s="2">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1897,10 +1897,10 @@
         <v>52</v>
       </c>
       <c r="C73" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1911,10 +1911,10 @@
         <v>52</v>
       </c>
       <c r="C74" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1925,10 +1925,10 @@
         <v>52</v>
       </c>
       <c r="C75" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1939,10 +1939,10 @@
         <v>52</v>
       </c>
       <c r="C76" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1953,10 +1953,10 @@
         <v>52</v>
       </c>
       <c r="C77" s="2">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1967,10 +1967,10 @@
         <v>52</v>
       </c>
       <c r="C78" s="2">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1981,10 +1981,10 @@
         <v>52</v>
       </c>
       <c r="C79" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1995,10 +1995,10 @@
         <v>52</v>
       </c>
       <c r="C80" s="2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2009,10 +2009,10 @@
         <v>52</v>
       </c>
       <c r="C81" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2023,10 +2023,10 @@
         <v>52</v>
       </c>
       <c r="C82" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2040,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2054,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2065,10 +2065,10 @@
         <v>52</v>
       </c>
       <c r="C85" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2079,10 +2079,10 @@
         <v>52</v>
       </c>
       <c r="C86" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2096,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2107,10 +2107,10 @@
         <v>52</v>
       </c>
       <c r="C88" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2121,10 +2121,10 @@
         <v>52</v>
       </c>
       <c r="C89" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2135,10 +2135,10 @@
         <v>52</v>
       </c>
       <c r="C90" s="2">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2149,10 +2149,10 @@
         <v>52</v>
       </c>
       <c r="C91" s="2">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2163,10 +2163,10 @@
         <v>52</v>
       </c>
       <c r="C92" s="2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2180,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2194,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2205,10 +2205,10 @@
         <v>52</v>
       </c>
       <c r="C95" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2219,10 +2219,10 @@
         <v>52</v>
       </c>
       <c r="C96" s="2">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2233,10 +2233,10 @@
         <v>52</v>
       </c>
       <c r="C97" s="2">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2250,7 +2250,7 @@
         <v>2</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2261,10 +2261,10 @@
         <v>52</v>
       </c>
       <c r="C99" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2275,10 +2275,10 @@
         <v>52</v>
       </c>
       <c r="C100" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2289,10 +2289,10 @@
         <v>52</v>
       </c>
       <c r="C101" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2303,10 +2303,10 @@
         <v>52</v>
       </c>
       <c r="C102" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2317,10 +2317,10 @@
         <v>52</v>
       </c>
       <c r="C103" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2331,10 +2331,10 @@
         <v>52</v>
       </c>
       <c r="C104" s="2">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2345,10 +2345,10 @@
         <v>52</v>
       </c>
       <c r="C105" s="2">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2359,10 +2359,10 @@
         <v>52</v>
       </c>
       <c r="C106" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2376,7 +2376,7 @@
         <v>3</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2387,10 +2387,10 @@
         <v>52</v>
       </c>
       <c r="C108" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2401,10 +2401,10 @@
         <v>52</v>
       </c>
       <c r="C109" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2415,10 +2415,10 @@
         <v>52</v>
       </c>
       <c r="C110" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2429,10 +2429,10 @@
         <v>52</v>
       </c>
       <c r="C111" s="2">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2443,10 +2443,10 @@
         <v>52</v>
       </c>
       <c r="C112" s="2">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2457,10 +2457,10 @@
         <v>52</v>
       </c>
       <c r="C113" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2471,10 +2471,10 @@
         <v>52</v>
       </c>
       <c r="C114" s="2">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2485,10 +2485,10 @@
         <v>52</v>
       </c>
       <c r="C115" s="2">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2502,7 +2502,7 @@
         <v>2</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2516,7 +2516,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2530,7 +2530,7 @@
         <v>2</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2541,10 +2541,10 @@
         <v>52</v>
       </c>
       <c r="C119" s="2">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2555,10 +2555,10 @@
         <v>52</v>
       </c>
       <c r="C120" s="2">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2569,10 +2569,10 @@
         <v>52</v>
       </c>
       <c r="C121" s="2">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2583,10 +2583,10 @@
         <v>52</v>
       </c>
       <c r="C122" s="2">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2597,10 +2597,10 @@
         <v>52</v>
       </c>
       <c r="C123" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2611,10 +2611,10 @@
         <v>52</v>
       </c>
       <c r="C124" s="2">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2625,10 +2625,10 @@
         <v>52</v>
       </c>
       <c r="C125" s="2">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2639,10 +2639,10 @@
         <v>52</v>
       </c>
       <c r="C126" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2653,10 +2653,10 @@
         <v>52</v>
       </c>
       <c r="C127" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2667,10 +2667,10 @@
         <v>52</v>
       </c>
       <c r="C128" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2681,10 +2681,10 @@
         <v>52</v>
       </c>
       <c r="C129" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2695,10 +2695,10 @@
         <v>52</v>
       </c>
       <c r="C130" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -2712,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2723,10 +2723,10 @@
         <v>52</v>
       </c>
       <c r="C132" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -2737,10 +2737,10 @@
         <v>52</v>
       </c>
       <c r="C133" s="2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -2754,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2765,10 +2765,10 @@
         <v>52</v>
       </c>
       <c r="C135" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2779,10 +2779,10 @@
         <v>52</v>
       </c>
       <c r="C136" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2793,10 +2793,10 @@
         <v>52</v>
       </c>
       <c r="C137" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2807,10 +2807,10 @@
         <v>52</v>
       </c>
       <c r="C138" s="2">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -2821,10 +2821,10 @@
         <v>52</v>
       </c>
       <c r="C139" s="2">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -2835,10 +2835,10 @@
         <v>52</v>
       </c>
       <c r="C140" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -2849,10 +2849,10 @@
         <v>52</v>
       </c>
       <c r="C141" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -2863,10 +2863,10 @@
         <v>52</v>
       </c>
       <c r="C142" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -2877,10 +2877,10 @@
         <v>52</v>
       </c>
       <c r="C143" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -2891,10 +2891,10 @@
         <v>52</v>
       </c>
       <c r="C144" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -2905,10 +2905,10 @@
         <v>52</v>
       </c>
       <c r="C145" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -2919,10 +2919,10 @@
         <v>52</v>
       </c>
       <c r="C146" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -2933,10 +2933,10 @@
         <v>52</v>
       </c>
       <c r="C147" s="2">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -2947,10 +2947,10 @@
         <v>52</v>
       </c>
       <c r="C148" s="2">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -2961,10 +2961,10 @@
         <v>52</v>
       </c>
       <c r="C149" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -2975,10 +2975,10 @@
         <v>52</v>
       </c>
       <c r="C150" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -2989,10 +2989,10 @@
         <v>52</v>
       </c>
       <c r="C151" s="2">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3003,10 +3003,10 @@
         <v>52</v>
       </c>
       <c r="C152" s="2">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3017,10 +3017,10 @@
         <v>52</v>
       </c>
       <c r="C153" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3031,10 +3031,10 @@
         <v>52</v>
       </c>
       <c r="C154" s="2">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3045,10 +3045,10 @@
         <v>52</v>
       </c>
       <c r="C155" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3059,10 +3059,10 @@
         <v>52</v>
       </c>
       <c r="C156" s="2">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3073,10 +3073,10 @@
         <v>52</v>
       </c>
       <c r="C157" s="2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3087,10 +3087,10 @@
         <v>52</v>
       </c>
       <c r="C158" s="2">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3101,10 +3101,10 @@
         <v>52</v>
       </c>
       <c r="C159" s="2">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3115,10 +3115,10 @@
         <v>52</v>
       </c>
       <c r="C160" s="2">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3129,10 +3129,10 @@
         <v>52</v>
       </c>
       <c r="C161" s="2">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3143,10 +3143,10 @@
         <v>52</v>
       </c>
       <c r="C162" s="2">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3157,10 +3157,10 @@
         <v>52</v>
       </c>
       <c r="C163" s="2">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3171,10 +3171,10 @@
         <v>52</v>
       </c>
       <c r="C164" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3185,10 +3185,10 @@
         <v>52</v>
       </c>
       <c r="C165" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3199,10 +3199,10 @@
         <v>52</v>
       </c>
       <c r="C166" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3213,10 +3213,10 @@
         <v>52</v>
       </c>
       <c r="C167" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3227,10 +3227,10 @@
         <v>52</v>
       </c>
       <c r="C168" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3241,10 +3241,10 @@
         <v>52</v>
       </c>
       <c r="C169" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3255,10 +3255,10 @@
         <v>52</v>
       </c>
       <c r="C170" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3269,10 +3269,10 @@
         <v>52</v>
       </c>
       <c r="C171" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3283,10 +3283,10 @@
         <v>52</v>
       </c>
       <c r="C172" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3297,10 +3297,10 @@
         <v>52</v>
       </c>
       <c r="C173" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3311,10 +3311,10 @@
         <v>52</v>
       </c>
       <c r="C174" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -3325,10 +3325,10 @@
         <v>52</v>
       </c>
       <c r="C175" s="2">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -3339,10 +3339,10 @@
         <v>52</v>
       </c>
       <c r="C176" s="2">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -3353,10 +3353,10 @@
         <v>52</v>
       </c>
       <c r="C177" s="2">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -3367,10 +3367,10 @@
         <v>52</v>
       </c>
       <c r="C178" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -3381,10 +3381,10 @@
         <v>52</v>
       </c>
       <c r="C179" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -3395,10 +3395,10 @@
         <v>52</v>
       </c>
       <c r="C180" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -3409,10 +3409,10 @@
         <v>52</v>
       </c>
       <c r="C181" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -3426,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -3437,10 +3437,10 @@
         <v>52</v>
       </c>
       <c r="C183" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -3454,7 +3454,7 @@
         <v>4</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -3465,10 +3465,10 @@
         <v>52</v>
       </c>
       <c r="C185" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -3479,10 +3479,10 @@
         <v>52</v>
       </c>
       <c r="C186" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -3493,10 +3493,10 @@
         <v>52</v>
       </c>
       <c r="C187" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -3507,10 +3507,10 @@
         <v>52</v>
       </c>
       <c r="C188" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -3521,10 +3521,10 @@
         <v>52</v>
       </c>
       <c r="C189" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -3535,10 +3535,10 @@
         <v>52</v>
       </c>
       <c r="C190" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -3549,10 +3549,10 @@
         <v>52</v>
       </c>
       <c r="C191" s="2">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -3563,10 +3563,10 @@
         <v>52</v>
       </c>
       <c r="C192" s="2">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -3577,10 +3577,10 @@
         <v>52</v>
       </c>
       <c r="C193" s="2">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -3591,10 +3591,10 @@
         <v>52</v>
       </c>
       <c r="C194" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -3605,10 +3605,10 @@
         <v>52</v>
       </c>
       <c r="C195" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -3619,10 +3619,10 @@
         <v>52</v>
       </c>
       <c r="C196" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -3633,10 +3633,10 @@
         <v>52</v>
       </c>
       <c r="C197" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -3647,10 +3647,10 @@
         <v>52</v>
       </c>
       <c r="C198" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -3661,10 +3661,10 @@
         <v>52</v>
       </c>
       <c r="C199" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -3675,10 +3675,10 @@
         <v>52</v>
       </c>
       <c r="C200" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -3689,10 +3689,10 @@
         <v>52</v>
       </c>
       <c r="C201" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -3703,10 +3703,10 @@
         <v>52</v>
       </c>
       <c r="C202" s="2">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -3717,10 +3717,10 @@
         <v>52</v>
       </c>
       <c r="C203" s="2">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -3731,10 +3731,10 @@
         <v>52</v>
       </c>
       <c r="C204" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -3745,10 +3745,10 @@
         <v>52</v>
       </c>
       <c r="C205" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -3759,10 +3759,10 @@
         <v>52</v>
       </c>
       <c r="C206" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -3773,10 +3773,10 @@
         <v>52</v>
       </c>
       <c r="C207" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -3787,10 +3787,10 @@
         <v>52</v>
       </c>
       <c r="C208" s="2">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -3801,10 +3801,10 @@
         <v>52</v>
       </c>
       <c r="C209" s="2">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -3815,10 +3815,10 @@
         <v>52</v>
       </c>
       <c r="C210" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -3829,10 +3829,10 @@
         <v>52</v>
       </c>
       <c r="C211" s="2">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -3843,10 +3843,10 @@
         <v>52</v>
       </c>
       <c r="C212" s="2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -3857,10 +3857,10 @@
         <v>52</v>
       </c>
       <c r="C213" s="2">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -3871,10 +3871,10 @@
         <v>52</v>
       </c>
       <c r="C214" s="2">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -3885,10 +3885,10 @@
         <v>52</v>
       </c>
       <c r="C215" s="2">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -3899,25 +3899,17 @@
         <v>52</v>
       </c>
       <c r="C216" s="2">
-        <v>35</v>
+        <v>2485</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C217" s="2">
-        <v>2485</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>218</v>
-      </c>
+      <c r="A217" s="3"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
@@ -4135,12 +4127,6 @@
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="3"/>
-      <c r="B254" s="3"/>
-      <c r="C254" s="2"/>
-      <c r="D254" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
